--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -526,6 +526,9 @@
       <c r="C11" t="str">
         <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -587,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.50</v>
+        <v>040105304570301054.51</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -527,7 +527,7 @@
         <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.51</v>
+        <v>040105304570301054.510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,9 +530,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F15" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">497_小飞燕粉色_delphinium ballkleid
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F16" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>4</v>
+      </c>
+      <c r="C17" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>137_凯瑟琳_Catherine_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -590,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510</v>
+        <v>040105304570301054.510554101212125.5220</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -612,6 +612,9 @@
       <c r="C21" t="str">
         <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -673,7 +676,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5220</v>
+        <v>040105304570301054.510554101212125.5221</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,9 +616,92 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>626_多丁莫言_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>167_迪威娜_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -676,7 +759,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221</v>
+        <v>040105304570301054.510554101212125.5221148872122.525100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -698,6 +698,9 @@
       <c r="C31" t="str">
         <v>167_迪威娜_undefined_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -759,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525100</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -702,9 +702,92 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>578_腊梅粉_wax pink_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>7</v>
+      </c>
+      <c r="C33" t="str">
+        <v>167_迪威娜_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>43_拉丝红_Spider Red_Gerbera L._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>86_威尼斯_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>8</v>
+      </c>
+      <c r="C40" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +845,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555580</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -784,6 +784,9 @@
       <c r="C41" t="str">
         <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -845,7 +848,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555580</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -788,9 +788,90 @@
         <v>23</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>78_玉镜_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>9</v>
+      </c>
+      <c r="C45" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>403_大飞燕浅蓝色_delphinium light blue_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -848,7 +929,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -868,6 +868,9 @@
       <c r="C51" t="str">
         <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -929,7 +932,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035150</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -869,7 +869,7 @@
         <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +932,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -872,9 +872,93 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>10</v>
+      </c>
+      <c r="C52" t="str">
+        <v>369_芦苇叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>571_大飞燕浅紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>333_狼尾草_wolf tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>756_雪花松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>11</v>
+      </c>
+      <c r="C60" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -932,7 +1016,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -955,6 +955,9 @@
       <c r="C61" t="str">
         <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1016,7 +1019,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201550</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,9 +959,89 @@
         <v>25</v>
       </c>
     </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>830_粉玉兰_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>557_山茶花_camellia_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>12</v>
+      </c>
+      <c r="C68" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" t="str">
+        <v>367_羊齿叶_lady fern_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>396_米花白_rice flower white_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>833_白杜果_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1019,7 +1099,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -1038,6 +1038,9 @@
       <c r="C71" t="str">
         <v>833_白杜果_undefined_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1099,7 +1102,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035550</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1039,12 +1039,61 @@
         <v>833_白杜果_undefined_undefined_1bunch</v>
       </c>
       <c r="F71" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>484_天鹅绒_Star of Bethlehem_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>849_婚庆卢荀草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>344_钢草_steal grass_Xanthorrhoea preissii Endl._1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">345_天竺少女_Cryptomeria
+Kashiwaba_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L77"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1102,7 +1151,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1091,9 +1091,95 @@
         <v>3</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>13</v>
+      </c>
+      <c r="C78" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>662_大丽花 白_undefined_undefined_5stems</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>675_大丽花 黄桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F80" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>14</v>
+      </c>
+      <c r="C81" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F81" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>447_黄金球_craspedia_undefined_1bunch</v>
+      </c>
+      <c r="F82" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F83" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F84" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>15</v>
+      </c>
+      <c r="C85" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F85" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="str">
+        <v>713_雪果粉_snowberry pink_undefined_1bunch</v>
+      </c>
+      <c r="F86" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="str">
+        <v>729_老人须_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L77"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L87"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1151,7 +1237,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -1176,6 +1176,9 @@
       <c r="C87" t="str">
         <v>729_老人须_undefined_undefined_1bunch</v>
       </c>
+      <c r="F87" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1237,7 +1240,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319150</v>
+        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551535330106328582510123191510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1180,9 +1180,95 @@
         <v>10</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>16</v>
+      </c>
+      <c r="C88" t="str">
+        <v>302_彩星 浅粉_Tinted Gypso light pink_undefined_0.5kg</v>
+      </c>
+      <c r="F88" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v/>
+      </c>
+      <c r="C89" t="str">
+        <v>309_彩星 浅紫_Tinted Gypso light purple_undefined_0.5kg</v>
+      </c>
+      <c r="F89" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F90" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F91" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F92" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F93" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="C94" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F94" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>17</v>
+      </c>
+      <c r="C95" t="str">
+        <v>304_彩星 浅宝蓝_Tinted Gypso light blue_undefined_0.5kg</v>
+      </c>
+      <c r="F95" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F96" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="C97" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L87"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L97"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1240,7 +1326,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.52510715121325555823551620101820351510681231530152015525201055101035551535330106328582510123191510</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -1265,6 +1265,9 @@
       <c r="C97" t="str">
         <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F97" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1326,7 +1329,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112550</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1269,9 +1269,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="98">
+      <c r="C98" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F98" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="C99" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F99" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="C100" t="str">
+        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
+      </c>
+      <c r="F100" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F101" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="C102" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F102" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="C103" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F103" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>18</v>
+      </c>
+      <c r="C104" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F104" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="C105" t="str">
+        <v>605_康乃馨流光粉_light pink_undefined_20stems</v>
+      </c>
+      <c r="F105" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F106" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L107"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1329,7 +1409,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510831425103201280</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -1348,6 +1348,9 @@
       <c r="C107" t="str">
         <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
       </c>
+      <c r="F107" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1409,7 +1412,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510831425103201280</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510831425103201281</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1349,12 +1349,96 @@
         <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
       </c>
       <c r="F107" t="str">
-        <v>1</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="C108" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F108" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="C109" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F109" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="C110" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F110" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">416_翠珠紫_Didiscus caeruleus
+blue_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F111" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">509_翠珠粉_Didiscus caeruleus
+pink_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F112" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F113" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>19</v>
+      </c>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F114" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F115" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F116" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L107"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L117"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1412,7 +1496,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510831425103201281</v>
+        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510831425103201281351515151531018200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -1435,6 +1435,9 @@
       <c r="C117" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F117" t="str">
+        <v>·</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1496,7 +1499,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.5251071512132555582355162010182035151068123153015201552520105510103555153533010632858251012319151010205155111125510831425103201281351515151531018200</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820·</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -1436,7 +1436,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F117" t="str">
-        <v>·</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1499,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820·</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-11-25.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1436,12 +1436,28 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F117" t="str">
-        <v/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F118" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F119" t="str">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L119"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1499,7 +1515,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820</v>
+        <v>040105304570301054.510554101212125.5221148872122.525107151213255558235516201018203515106812315301520155252010551010355515353301063285825101231915101020515511112551083142510320128135151515153101820121015</v>
       </c>
     </row>
   </sheetData>
